--- a/public/reports/salesReport.xlsx
+++ b/public/reports/salesReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Order ID</t>
   </si>
@@ -19,6 +19,9 @@
     <t>Customer</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>FAD. FX</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>$6200.00</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>ORD-100628-7394</t>
+  </si>
+  <si>
+    <t>Delivered</t>
   </si>
   <si>
     <t>$12998.00</t>
@@ -480,16 +489,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
+    <col min="4" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,145 +517,169 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/salesReport.xlsx
+++ b/public/reports/salesReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Order ID</t>
   </si>
@@ -34,85 +34,121 @@
     <t>Date</t>
   </si>
   <si>
-    <t>ORD-880020-7670</t>
+    <t>ORD-354933-8748</t>
   </si>
   <si>
     <t>FAD. FX</t>
   </si>
   <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>13998.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>ORD-053341-5546</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>11038.00</t>
+  </si>
+  <si>
+    <t>ORD-516456-5347</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>7498.00</t>
+  </si>
+  <si>
+    <t>ORD-692653-8476</t>
+  </si>
+  <si>
+    <t>Requested</t>
+  </si>
+  <si>
+    <t>9495.00</t>
+  </si>
+  <si>
+    <t>4747.50</t>
+  </si>
+  <si>
+    <t>ORD-439754-1936</t>
+  </si>
+  <si>
+    <t>3399.00</t>
+  </si>
+  <si>
+    <t>ORD-652088-5085</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>7795.00</t>
+  </si>
+  <si>
+    <t>ORD-878634-7912</t>
+  </si>
+  <si>
+    <t>3297.00</t>
+  </si>
+  <si>
+    <t>ORD-177497-9112</t>
+  </si>
+  <si>
+    <t>11996.00</t>
+  </si>
+  <si>
+    <t>ORD-419824-4131</t>
+  </si>
+  <si>
+    <t>5398.00</t>
+  </si>
+  <si>
+    <t>ORD-636864-8461</t>
+  </si>
+  <si>
+    <t>5100.00</t>
+  </si>
+  <si>
+    <t>ORD-802332-4126</t>
+  </si>
+  <si>
+    <t>6798.00</t>
+  </si>
+  <si>
+    <t>ORD-405612-5161</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>$6200.00</t>
-  </si>
-  <si>
-    <t>$1550.00</t>
-  </si>
-  <si>
-    <t>$4650.00</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>ORD-225803-9666</t>
-  </si>
-  <si>
-    <t>$6000.00</t>
-  </si>
-  <si>
-    <t>$-3000.00</t>
-  </si>
-  <si>
-    <t>$9000.00</t>
-  </si>
-  <si>
-    <t>ORD-938943-8230</t>
-  </si>
-  <si>
-    <t>$600.00</t>
-  </si>
-  <si>
-    <t>$5400.00</t>
-  </si>
-  <si>
-    <t>ORD-195974-2051</t>
-  </si>
-  <si>
-    <t>$5592.00</t>
-  </si>
-  <si>
-    <t>$2796.00</t>
-  </si>
-  <si>
-    <t>ORD-446578-4466</t>
-  </si>
-  <si>
-    <t>$5640.00</t>
-  </si>
-  <si>
-    <t>$2820.00</t>
-  </si>
-  <si>
-    <t>ORD-876718-6493</t>
-  </si>
-  <si>
-    <t>$620.00</t>
-  </si>
-  <si>
-    <t>$5580.00</t>
-  </si>
-  <si>
-    <t>ORD-100628-7394</t>
-  </si>
-  <si>
-    <t>Delivered</t>
-  </si>
-  <si>
-    <t>$12998.00</t>
-  </si>
-  <si>
-    <t>$0.00</t>
+    <t>5592.00</t>
+  </si>
+  <si>
+    <t>559.20</t>
+  </si>
+  <si>
+    <t>5032.80</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>ORD-305228-5878</t>
+  </si>
+  <si>
+    <t>5899.00</t>
   </si>
 </sst>
 </file>
@@ -489,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -538,148 +574,286 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/salesReport.xlsx
+++ b/public/reports/salesReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Order ID</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>5899.00</t>
+  </si>
+  <si>
+    <t>ORD-706133-1256</t>
+  </si>
+  <si>
+    <t>fadhilcp</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>ORD-867660-5342</t>
   </si>
 </sst>
 </file>
@@ -525,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -856,6 +871,52 @@
         <v>43</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/reports/salesReport.xlsx
+++ b/public/reports/salesReport.xlsx
@@ -11,7 +11,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Total Orders:</t>
+  </si>
+  <si>
+    <t>Total Sales Amount:</t>
+  </si>
+  <si>
+    <t>146650.00</t>
+  </si>
+  <si>
+    <t>Total Discount Given:</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Final Revenue:</t>
+  </si>
   <si>
     <t>Order ID</t>
   </si>
@@ -34,149 +55,96 @@
     <t>Date</t>
   </si>
   <si>
-    <t>ORD-354933-8748</t>
+    <t>ORD-554857-5227</t>
   </si>
   <si>
     <t>FAD. FX</t>
   </si>
   <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>13998.00</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>2025-02-17</t>
-  </si>
-  <si>
-    <t>ORD-053341-5546</t>
-  </si>
-  <si>
     <t>Cancelled</t>
   </si>
   <si>
-    <t>11038.00</t>
-  </si>
-  <si>
-    <t>ORD-516456-5347</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>7498.00</t>
-  </si>
-  <si>
-    <t>ORD-692653-8476</t>
-  </si>
-  <si>
-    <t>Requested</t>
-  </si>
-  <si>
-    <t>9495.00</t>
-  </si>
-  <si>
-    <t>4747.50</t>
-  </si>
-  <si>
-    <t>ORD-439754-1936</t>
-  </si>
-  <si>
-    <t>3399.00</t>
-  </si>
-  <si>
-    <t>ORD-652088-5085</t>
-  </si>
-  <si>
-    <t>Delivered</t>
-  </si>
-  <si>
-    <t>7795.00</t>
-  </si>
-  <si>
-    <t>ORD-878634-7912</t>
-  </si>
-  <si>
-    <t>3297.00</t>
-  </si>
-  <si>
-    <t>ORD-177497-9112</t>
-  </si>
-  <si>
-    <t>11996.00</t>
-  </si>
-  <si>
-    <t>ORD-419824-4131</t>
-  </si>
-  <si>
-    <t>5398.00</t>
-  </si>
-  <si>
-    <t>ORD-636864-8461</t>
-  </si>
-  <si>
-    <t>5100.00</t>
-  </si>
-  <si>
-    <t>ORD-802332-4126</t>
-  </si>
-  <si>
-    <t>6798.00</t>
-  </si>
-  <si>
-    <t>ORD-405612-5161</t>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>ORD-637993-9818</t>
+  </si>
+  <si>
+    <t>ORD-316768-1132</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>ORD-916049-8627</t>
   </si>
   <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>5592.00</t>
-  </si>
-  <si>
-    <t>559.20</t>
-  </si>
-  <si>
-    <t>5032.80</t>
-  </si>
-  <si>
-    <t>2025-02-18</t>
-  </si>
-  <si>
-    <t>ORD-305228-5878</t>
-  </si>
-  <si>
-    <t>5899.00</t>
-  </si>
-  <si>
-    <t>ORD-706133-1256</t>
-  </si>
-  <si>
-    <t>fadhilcp</t>
-  </si>
-  <si>
-    <t>2600.00</t>
-  </si>
-  <si>
-    <t>1300.00</t>
-  </si>
-  <si>
-    <t>ORD-867660-5342</t>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>ORD-336040-4631</t>
+  </si>
+  <si>
+    <t>5640.00</t>
+  </si>
+  <si>
+    <t>ORD-099466-8270</t>
+  </si>
+  <si>
+    <t>ORD-265309-9755</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>ORD-386800-1294</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>ORD-819700-1868</t>
+  </si>
+  <si>
+    <t>7160.00</t>
+  </si>
+  <si>
+    <t>ORD-199347-4141</t>
+  </si>
+  <si>
+    <t>55150.00</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>ORD-061203-8224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,8 +167,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -549,372 +519,317 @@
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/salesReport.xlsx
+++ b/public/reports/salesReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Summary</t>
   </si>
@@ -22,15 +22,12 @@
     <t>Total Sales Amount:</t>
   </si>
   <si>
-    <t>146650.00</t>
+    <t>0.00</t>
   </si>
   <si>
     <t>Total Discount Given:</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>Final Revenue:</t>
   </si>
   <si>
@@ -53,78 +50,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>ORD-554857-5227</t>
-  </si>
-  <si>
-    <t>FAD. FX</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>3000.00</t>
-  </si>
-  <si>
-    <t>2025-02-20</t>
-  </si>
-  <si>
-    <t>ORD-637993-9818</t>
-  </si>
-  <si>
-    <t>ORD-316768-1132</t>
-  </si>
-  <si>
-    <t>4000.00</t>
-  </si>
-  <si>
-    <t>ORD-916049-8627</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>4650.00</t>
-  </si>
-  <si>
-    <t>ORD-336040-4631</t>
-  </si>
-  <si>
-    <t>5640.00</t>
-  </si>
-  <si>
-    <t>ORD-099466-8270</t>
-  </si>
-  <si>
-    <t>ORD-265309-9755</t>
-  </si>
-  <si>
-    <t>3800.00</t>
-  </si>
-  <si>
-    <t>ORD-386800-1294</t>
-  </si>
-  <si>
-    <t>2100.00</t>
-  </si>
-  <si>
-    <t>ORD-819700-1868</t>
-  </si>
-  <si>
-    <t>7160.00</t>
-  </si>
-  <si>
-    <t>ORD-199347-4141</t>
-  </si>
-  <si>
-    <t>55150.00</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>ORD-061203-8224</t>
   </si>
 </sst>
 </file>
@@ -510,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -529,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,12 +470,12 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -558,278 +483,25 @@
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
